--- a/files/测试数据字典.xlsx
+++ b/files/测试数据字典.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F32A30-8950-46A5-9212-1AC4A4C32A0C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B1DAD0-C5AF-4FCB-A570-6F0F0ACBB218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -141,31 +141,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>EndDate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IsValid</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>是否生成脚本</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -175,6 +150,10 @@
   </si>
   <si>
     <t>HoldTest2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndDate;IsValid</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -724,19 +703,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,10 +729,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -764,12 +743,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -789,20 +768,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="11"/>
-    <col min="4" max="4" width="11.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="11"/>
+    <col min="1" max="1" width="16.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="11"/>
+    <col min="4" max="4" width="11.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -819,7 +798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>32</v>
       </c>
@@ -836,12 +815,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" s="10">
         <v>0</v>
@@ -863,16 +842,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -892,7 +873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -912,7 +893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -932,7 +913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -952,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -968,7 +949,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>7</v>
       </c>
@@ -995,13 +976,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F649F5-F503-491D-BBEB-B1222593A543}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1021,7 +1002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="23.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1041,7 +1022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1061,7 +1042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -1081,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -1097,7 +1078,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>7</v>
       </c>

--- a/files/测试数据字典.xlsx
+++ b/files/测试数据字典.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC40108-2649-4959-A81D-4C82347E80C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87515F21-293F-4762-922E-271EA8C3E9BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
   <si>
     <t>中文名</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>IsValid</t>
-  </si>
-  <si>
-    <t>Varchar(12)</t>
   </si>
   <si>
     <t>EndDate</t>
@@ -169,6 +166,102 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>numeric</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blob</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clob</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shotcut</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>birth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>died</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Varchar(12)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -356,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -385,6 +478,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -730,15 +826,15 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,26 +848,26 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -795,16 +891,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="11"/>
-    <col min="4" max="4" width="11.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="11"/>
+    <col min="1" max="1" width="16.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="11"/>
+    <col min="4" max="4" width="11.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -821,12 +917,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="10">
         <v>0</v>
@@ -838,12 +934,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="10">
         <v>0</v>
@@ -863,21 +959,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -896,60 +992,60 @@
       <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -963,7 +1059,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
@@ -971,17 +1067,17 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="9"/>
@@ -989,25 +1085,223 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>7</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>17</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="7"/>
+      <c r="B16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1018,15 +1312,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F649F5-F503-491D-BBEB-B1222593A543}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="A1:H6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1046,59 +1340,59 @@
         <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="23.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="9">
-        <v>1</v>
+      <c r="E2" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="9">
-        <v>1</v>
+      <c r="E3" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -1111,8 +1405,8 @@
       <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9">
-        <v>1</v>
+      <c r="E4" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
@@ -1120,17 +1414,17 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="9"/>
@@ -1138,25 +1432,223 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>7</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>17</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="7"/>
+      <c r="B16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/files/测试数据字典.xlsx
+++ b/files/测试数据字典.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87515F21-293F-4762-922E-271EA8C3E9BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DEC96F-F85B-4618-8F95-866270643B29}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
   <si>
     <t>中文名</t>
   </si>
@@ -263,6 +263,13 @@
   <si>
     <t>Varchar(12)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndDate;IsValid</t>
   </si>
 </sst>
 </file>
@@ -449,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -479,6 +486,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -823,18 +833,18 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,7 +861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -862,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -885,22 +895,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="11"/>
-    <col min="4" max="4" width="11.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="11"/>
+    <col min="1" max="1" width="16.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="11"/>
+    <col min="4" max="4" width="11.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -917,7 +927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>26</v>
       </c>
@@ -934,26 +944,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
         <v>0</v>
       </c>
-      <c r="D3" s="10">
+      <c r="E4" s="10">
         <v>0</v>
       </c>
-      <c r="E3" s="10">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -961,19 +1006,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -999,7 +1044,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1023,7 +1068,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1045,7 +1090,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -1067,7 +1112,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -1085,7 +1130,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>7</v>
       </c>
@@ -1105,7 +1150,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>8</v>
       </c>
@@ -1123,7 +1168,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>9</v>
       </c>
@@ -1134,14 +1179,14 @@
         <v>50</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>10</v>
       </c>
@@ -1159,7 +1204,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>11</v>
       </c>
@@ -1177,7 +1222,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>12</v>
       </c>
@@ -1195,7 +1240,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>13</v>
       </c>
@@ -1209,11 +1254,13 @@
         <v>44</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="F12" s="15">
+        <v>43528</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>14</v>
       </c>
@@ -1231,7 +1278,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>15</v>
       </c>
@@ -1249,7 +1296,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>16</v>
       </c>
@@ -1267,7 +1314,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>17</v>
       </c>
@@ -1285,7 +1332,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>18</v>
       </c>
@@ -1318,9 +1365,9 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1346,7 +1393,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="23.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1370,7 +1417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1392,7 +1439,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -1414,7 +1461,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -1432,7 +1479,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>7</v>
       </c>
@@ -1452,7 +1499,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>8</v>
       </c>
@@ -1470,7 +1517,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>9</v>
       </c>
@@ -1488,7 +1535,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>10</v>
       </c>
@@ -1506,7 +1553,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>11</v>
       </c>
@@ -1524,7 +1571,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>12</v>
       </c>
@@ -1542,7 +1589,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>13</v>
       </c>
@@ -1560,7 +1607,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>14</v>
       </c>
@@ -1578,7 +1625,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>15</v>
       </c>
@@ -1596,7 +1643,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>16</v>
       </c>
@@ -1614,7 +1661,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>17</v>
       </c>
@@ -1632,7 +1679,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>18</v>
       </c>
